--- a/data/trans_dic/P25A_7_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 13,0</t>
+          <t>5,62; 14,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,83</t>
+          <t>4,7; 12,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,98</t>
+          <t>4,58; 13,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 24,53</t>
+          <t>7,59; 18,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 21,65</t>
+          <t>14,84; 26,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 22,29</t>
+          <t>11,5; 21,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,22</t>
+          <t>12,95; 23,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,2</t>
+          <t>17,58; 31,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,1</t>
+          <t>11,57; 19,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 16,55</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 17,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 23,53</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,89</t>
+          <t>6,33; 18,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,23</t>
+          <t>6,57; 18,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,87</t>
+          <t>6,14; 15,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 22,0</t>
+          <t>9,74; 22,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,48; 26,81</t>
+          <t>10,3; 22,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,31; 32,81</t>
+          <t>12,55; 25,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,48</t>
+          <t>18,17; 32,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,9</t>
+          <t>16,74; 39,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 20,15</t>
+          <t>9,7; 17,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 19,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 22,36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 28,63</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 16,81</t>
+          <t>2,99; 31,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 12,94</t>
+          <t>2,3; 24,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 51,09</t>
+          <t>7,32; 70,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 28,04</t>
+          <t>3,49; 73,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 25,38</t>
+          <t>2,34; 23,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 31,86</t>
+          <t>5,13; 27,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 18,62</t>
+          <t>5,14; 30,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 16,52</t>
+          <t>10,81; 37,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 36,01</t>
+          <t>5,22; 21,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 21,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 46,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 53,19</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,51</t>
+          <t>7,59; 14,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,9</t>
+          <t>6,7; 13,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,63</t>
+          <t>7,76; 19,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,33</t>
+          <t>11,19; 25,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,54</t>
+          <t>13,36; 20,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,7</t>
+          <t>13,6; 20,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,67</t>
+          <t>16,52; 24,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 15,56</t>
+          <t>19,47; 30,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,67</t>
+          <t>11,83; 17,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 16,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 19,91</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 25,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41253</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29692</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30490</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65423</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>101464</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>69819</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>71445</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>137588</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>142717</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>99511</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>101935</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>203010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24190; 62493</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17207; 47451</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17433; 50201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39170; 96235</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>75518; 133857</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>48423; 91695</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52585; 93518</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>99075; 176354</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108639; 182863</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75880; 130326</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78048; 134670</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>159506; 254021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40206</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36711</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33336</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64002</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65946</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61451</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80775</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>106009</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>106151</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98162</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114110</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>170012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22750; 64698</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20920; 58159</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19800; 51317</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40148; 92597</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43805; 96757</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42482; 85415</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60152; 107602</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72527; 169806</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76132; 140310</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71831; 129507</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>87536; 146138</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>126100; 242047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13400</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27649</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36298</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9480</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11074</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11992</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25103</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22880</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18246</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39641</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2843; 30326</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1835; 19731</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6264; 60758</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4163; 87388</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2317; 23354</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4187; 22527</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4244; 25415</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12042; 41354</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10128; 42272</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8150; 34054</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16841; 78723</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27764; 122737</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>94858</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73575</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>165723</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>176890</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>142344</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>164212</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>268700</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>271748</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>215919</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>255687</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>434423</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>67161; 127367</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51194; 102857</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61200; 154147</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>117181; 263856</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>137971; 214981</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>114395; 174873</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>135421; 198299</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>215732; 338318</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>226942; 332051</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>178270; 257679</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>211711; 320239</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>356863; 540727</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
